--- a/request_git.xlsx
+++ b/request_git.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dedov\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dedov\OneDrive\Документы\Test theory\Test-theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99ED9F7-BA44-4E7C-8DD8-C59CADE421B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F6EB90-42F5-412F-BBB8-23E1DC10AC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3936" yWindow="2832" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -574,11 +574,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,18 +1279,18 @@
       <c r="A45" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -1332,17 +1332,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/request_git.xlsx
+++ b/request_git.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dedov\OneDrive\Документы\Test theory\Test-theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F6EB90-42F5-412F-BBB8-23E1DC10AC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61214324-41B0-4D80-9F0F-8FBAEBB83AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="2832" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="432" yWindow="2184" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -864,7 +864,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
